--- a/Lista_4/Estatisticas_times.xlsx
+++ b/Lista_4/Estatisticas_times.xlsx
@@ -1,36 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -38,18 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -128,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -163,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -198,16 +279,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -329,480 +414,512 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>Pais</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Jogos</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Gols_feitos</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Gols_sofridos</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Pais</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jogos</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Gols_feitos</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Gols_sofridos</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v xml:space="preserve"> Argentina</v>
-      </c>
-      <c r="B2" t="str">
-        <v>15</v>
-      </c>
-      <c r="C2" t="str">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2" t="n">
         <v>28</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v xml:space="preserve"> Belgium</v>
-      </c>
-      <c r="B3" t="str">
-        <v>15</v>
-      </c>
-      <c r="C3" t="str">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
         <v>32</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v xml:space="preserve"> Brazil</v>
-      </c>
-      <c r="B4" t="str">
-        <v>15</v>
-      </c>
-      <c r="C4" t="str">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" t="n">
         <v>31</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v xml:space="preserve"> Cameroon</v>
-      </c>
-      <c r="B5" t="str">
-        <v>15</v>
-      </c>
-      <c r="C5" t="str">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
         <v>27</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v xml:space="preserve"> Canada</v>
-      </c>
-      <c r="B6" t="str">
-        <v>15</v>
-      </c>
-      <c r="C6" t="str">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" t="n">
         <v>27</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v xml:space="preserve"> Croatia</v>
-      </c>
-      <c r="B7" t="str">
-        <v>15</v>
-      </c>
-      <c r="C7" t="str">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
         <v>29</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v xml:space="preserve"> Denmark</v>
-      </c>
-      <c r="B8" t="str">
-        <v>15</v>
-      </c>
-      <c r="C8" t="str">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
         <v>30</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v xml:space="preserve"> Ecuador</v>
-      </c>
-      <c r="B9" t="str">
-        <v>15</v>
-      </c>
-      <c r="C9" t="str">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" t="n">
         <v>17</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v xml:space="preserve"> England</v>
-      </c>
-      <c r="B10" t="str">
-        <v>15</v>
-      </c>
-      <c r="C10" t="str">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" t="n">
         <v>41</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v xml:space="preserve"> France</v>
-      </c>
-      <c r="B11" t="str">
-        <v>15</v>
-      </c>
-      <c r="C11" t="str">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>15</v>
+      </c>
+      <c r="C11" t="n">
         <v>34</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v xml:space="preserve"> Germany</v>
-      </c>
-      <c r="B12" t="str">
-        <v>15</v>
-      </c>
-      <c r="C12" t="str">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>15</v>
+      </c>
+      <c r="C12" t="n">
         <v>44</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v xml:space="preserve"> Ghana</v>
-      </c>
-      <c r="B13" t="str">
-        <v>15</v>
-      </c>
-      <c r="C13" t="str">
-        <v>15</v>
-      </c>
-      <c r="D13" t="str">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>15</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15</v>
+      </c>
+      <c r="D13" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v xml:space="preserve"> Iran</v>
-      </c>
-      <c r="B14" t="str">
-        <v>15</v>
-      </c>
-      <c r="C14" t="str">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" t="n">
         <v>33</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v xml:space="preserve"> Japan</v>
-      </c>
-      <c r="B15" t="str">
-        <v>15</v>
-      </c>
-      <c r="C15" t="str">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
         <v>26</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
-        <v xml:space="preserve"> Mexico</v>
-      </c>
-      <c r="B16" t="str">
-        <v>15</v>
-      </c>
-      <c r="C16" t="str">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
         <v>14</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
-        <v xml:space="preserve"> Morocco</v>
-      </c>
-      <c r="B17" t="str">
-        <v>15</v>
-      </c>
-      <c r="C17" t="str">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
         <v>31</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D17" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
-        <v xml:space="preserve"> Netherlands</v>
-      </c>
-      <c r="B18" t="str">
-        <v>15</v>
-      </c>
-      <c r="C18" t="str">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" t="n">
         <v>41</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D18" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
-        <v xml:space="preserve"> Poland</v>
-      </c>
-      <c r="B19" t="str">
-        <v>15</v>
-      </c>
-      <c r="C19" t="str">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>15</v>
+      </c>
+      <c r="C19" t="n">
         <v>34</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
-        <v xml:space="preserve"> Portugal</v>
-      </c>
-      <c r="B20" t="str">
-        <v>15</v>
-      </c>
-      <c r="C20" t="str">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>15</v>
+      </c>
+      <c r="C20" t="n">
         <v>31</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D20" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
-        <v xml:space="preserve"> Qatar</v>
-      </c>
-      <c r="B21" t="str">
-        <v>15</v>
-      </c>
-      <c r="C21" t="str">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>15</v>
+      </c>
+      <c r="C21" t="n">
         <v>18</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D21" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
-        <v xml:space="preserve"> Saudi Arabia</v>
-      </c>
-      <c r="B22" t="str">
-        <v>15</v>
-      </c>
-      <c r="C22" t="str">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
         <v>13</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D22" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
-        <v xml:space="preserve"> Senegal</v>
-      </c>
-      <c r="B23" t="str">
-        <v>15</v>
-      </c>
-      <c r="C23" t="str">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>15</v>
+      </c>
+      <c r="C23" t="n">
         <v>24</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D23" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="str">
-        <v xml:space="preserve"> Serbia</v>
-      </c>
-      <c r="B24" t="str">
-        <v>15</v>
-      </c>
-      <c r="C24" t="str">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
         <v>28</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D24" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
-        <v xml:space="preserve"> South Korea</v>
-      </c>
-      <c r="B25" t="str">
-        <v>15</v>
-      </c>
-      <c r="C25" t="str">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>15</v>
+      </c>
+      <c r="C25" t="n">
         <v>31</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D25" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="str">
-        <v xml:space="preserve"> Spain</v>
-      </c>
-      <c r="B26" t="str">
-        <v>15</v>
-      </c>
-      <c r="C26" t="str">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>15</v>
+      </c>
+      <c r="C26" t="n">
         <v>30</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D26" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="str">
-        <v xml:space="preserve"> Switzerland</v>
-      </c>
-      <c r="B27" t="str">
-        <v>15</v>
-      </c>
-      <c r="C27" t="str">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>15</v>
+      </c>
+      <c r="C27" t="n">
         <v>21</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D27" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="str">
-        <v xml:space="preserve"> Tunisia</v>
-      </c>
-      <c r="B28" t="str">
-        <v>15</v>
-      </c>
-      <c r="C28" t="str">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>15</v>
+      </c>
+      <c r="C28" t="n">
         <v>19</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D28" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="str">
-        <v xml:space="preserve"> Uruguay</v>
-      </c>
-      <c r="B29" t="str">
-        <v>15</v>
-      </c>
-      <c r="C29" t="str">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>15</v>
+      </c>
+      <c r="C29" t="n">
+        <v>24</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>15</v>
+      </c>
+      <c r="C30" t="n">
         <v>23</v>
       </c>
-      <c r="D29" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v xml:space="preserve"> USA</v>
-      </c>
-      <c r="B30" t="str">
-        <v>15</v>
-      </c>
-      <c r="C30" t="str">
-        <v>24</v>
-      </c>
-      <c r="D30" t="str">
-        <v>9</v>
+      <c r="D30" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D30"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>